--- a/Excel/16. Importing Data from external sources/Employee_data.xlsx
+++ b/Excel/16. Importing Data from external sources/Employee_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DC_DDS_02\Excel\16. Importing Data from external sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E2F15E-D87D-47EF-B291-CA36B6571466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CCD1C9-E14A-4DEF-A137-D4D2DD43DD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{702529EA-3557-4535-A695-FA4D77C51B52}"/>
   </bookViews>
@@ -133,9 +133,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,7 +511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E880C3-A3D9-4A2E-9477-87A2ACE9E8D8}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -548,13 +549,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2">
@@ -568,13 +569,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3">
@@ -588,13 +589,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4">
@@ -608,13 +609,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5">
@@ -628,13 +629,13 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6">
@@ -648,13 +649,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7">
@@ -668,13 +669,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8">
@@ -688,13 +689,13 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9">
@@ -708,13 +709,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10">
@@ -728,13 +729,13 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11">
@@ -748,13 +749,13 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12">
@@ -768,13 +769,13 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>8</v>
       </c>
       <c r="E13">
@@ -788,13 +789,13 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14">
@@ -808,13 +809,13 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15">
@@ -828,13 +829,13 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16">
@@ -848,13 +849,13 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17">
@@ -868,13 +869,13 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
         <v>8</v>
       </c>
       <c r="E18">
@@ -888,13 +889,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19">
@@ -908,13 +909,13 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20">
@@ -928,13 +929,13 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21">
@@ -948,13 +949,13 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22">
@@ -968,13 +969,13 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23">
@@ -988,13 +989,13 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24">
@@ -1008,13 +1009,13 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
         <v>8</v>
       </c>
       <c r="E25">
@@ -1028,13 +1029,13 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>11</v>
       </c>
       <c r="E26">
@@ -1048,13 +1049,13 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27">
@@ -1068,13 +1069,13 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28">
@@ -1088,13 +1089,13 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29">
@@ -1108,13 +1109,13 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="E30">
@@ -1128,13 +1129,13 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
         <v>11</v>
       </c>
       <c r="E31">
@@ -1148,13 +1149,13 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
         <v>11</v>
       </c>
       <c r="E32">
@@ -1168,13 +1169,13 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
         <v>8</v>
       </c>
       <c r="E33">
@@ -1188,13 +1189,13 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34">
@@ -1208,13 +1209,13 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>11</v>
       </c>
       <c r="E35">
@@ -1228,13 +1229,13 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
         <v>11</v>
       </c>
       <c r="E36">
@@ -1248,13 +1249,13 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="E37">
@@ -1268,13 +1269,13 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>8</v>
       </c>
       <c r="E38">
@@ -1288,13 +1289,13 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
         <v>11</v>
       </c>
       <c r="E39">
@@ -1308,13 +1309,13 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
         <v>11</v>
       </c>
       <c r="E40">
@@ -1328,13 +1329,13 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
         <v>11</v>
       </c>
       <c r="E41">
@@ -1348,13 +1349,13 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
         <v>8</v>
       </c>
       <c r="E42">
@@ -1368,13 +1369,13 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
         <v>8</v>
       </c>
       <c r="E43">
@@ -1388,13 +1389,13 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
         <v>11</v>
       </c>
       <c r="E44">
@@ -1408,13 +1409,13 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
         <v>8</v>
       </c>
       <c r="E45">
@@ -1428,13 +1429,13 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
         <v>11</v>
       </c>
       <c r="E46">
@@ -1448,13 +1449,13 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
         <v>11</v>
       </c>
       <c r="E47">
@@ -1468,13 +1469,13 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
         <v>8</v>
       </c>
       <c r="E48">
@@ -1488,13 +1489,13 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>8</v>
       </c>
       <c r="E49">
@@ -1508,13 +1509,13 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
         <v>8</v>
       </c>
       <c r="E50">
@@ -1528,13 +1529,13 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
         <v>11</v>
       </c>
       <c r="E51">
@@ -1548,13 +1549,13 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
         <v>8</v>
       </c>
       <c r="E52">
@@ -1568,13 +1569,13 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>8</v>
       </c>
       <c r="E53">
@@ -1588,13 +1589,13 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
         <v>11</v>
       </c>
       <c r="E54">
@@ -1608,13 +1609,13 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
         <v>11</v>
       </c>
       <c r="E55">
@@ -1628,13 +1629,13 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>8</v>
       </c>
       <c r="E56">
@@ -1648,13 +1649,13 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="E57">
@@ -1668,13 +1669,13 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
         <v>8</v>
       </c>
       <c r="E58">
@@ -1688,13 +1689,13 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
         <v>11</v>
       </c>
       <c r="E59">
@@ -1708,13 +1709,13 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
         <v>8</v>
       </c>
       <c r="E60">
@@ -1728,13 +1729,13 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>8</v>
       </c>
       <c r="E61">
@@ -1748,13 +1749,13 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
         <v>11</v>
       </c>
       <c r="E62">
@@ -1768,13 +1769,13 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
         <v>11</v>
       </c>
       <c r="E63">
@@ -1788,13 +1789,13 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>11</v>
       </c>
       <c r="E64">
@@ -1808,13 +1809,13 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>8</v>
       </c>
       <c r="E65">
@@ -1828,13 +1829,13 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" t="s">
         <v>8</v>
       </c>
       <c r="E66">
@@ -1848,13 +1849,13 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="E67">
@@ -1868,13 +1869,13 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
         <v>8</v>
       </c>
       <c r="E68">
@@ -1888,13 +1889,13 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>11</v>
       </c>
       <c r="E69">
@@ -1908,13 +1909,13 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
         <v>8</v>
       </c>
       <c r="E70">
@@ -1928,13 +1929,13 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
         <v>11</v>
       </c>
       <c r="E71">
@@ -1948,13 +1949,13 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
         <v>8</v>
       </c>
       <c r="E72">
@@ -1968,13 +1969,13 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
         <v>11</v>
       </c>
       <c r="E73">
@@ -1988,13 +1989,13 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
         <v>8</v>
       </c>
       <c r="E74">
@@ -2008,13 +2009,13 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
         <v>11</v>
       </c>
       <c r="E75">
@@ -2028,13 +2029,13 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
         <v>11</v>
       </c>
       <c r="E76">
@@ -2048,13 +2049,13 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" t="s">
         <v>11</v>
       </c>
       <c r="E77">
@@ -2068,13 +2069,13 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
         <v>8</v>
       </c>
       <c r="E78">
@@ -2088,13 +2089,13 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
         <v>11</v>
       </c>
       <c r="E79">
@@ -2108,13 +2109,13 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
         <v>8</v>
       </c>
       <c r="E80">
@@ -2128,13 +2129,13 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" t="s">
         <v>8</v>
       </c>
       <c r="E81">
